--- a/Cronograma Individual/CRONOGRAMA DE ACTIVIDADES.xlsx
+++ b/Cronograma Individual/CRONOGRAMA DE ACTIVIDADES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\CICLO 3 PROYECTO\Cronograma Individual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A2FC76-0F0B-48D0-B007-F8B89B0DC222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EA8015-014B-43A5-B81A-31C4F18F0774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{9096679F-886E-4B5D-A59E-0620D863AE84}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{9096679F-886E-4B5D-A59E-0620D863AE84}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -320,13 +320,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -344,6 +350,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -353,20 +362,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -682,10 +682,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82B854E-745D-4F4F-B32E-3C226F0F660D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A2:AZ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:F12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:AY31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,20 +697,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:52" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
       <c r="M2" s="11">
         <v>44797</v>
       </c>
@@ -828,11 +831,11 @@
       <c r="AZ2" s="12"/>
     </row>
     <row r="3" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
+      <c r="A3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -962,11 +965,11 @@
       <c r="AZ3" s="1"/>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1019,11 +1022,11 @@
       <c r="AY4" s="7"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1076,11 +1079,11 @@
       <c r="AY5" s="7"/>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1133,11 +1136,11 @@
       <c r="AY6" s="7"/>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1240,11 +1243,11 @@
       <c r="AY7" s="7"/>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1305,11 +1308,11 @@
       <c r="AY8" s="7"/>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1370,16 +1373,16 @@
       <c r="AY9" s="7"/>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="31" t="s">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -1442,11 +1445,11 @@
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="31"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="23"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -1501,11 +1504,11 @@
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="31"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="23"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -1558,11 +1561,11 @@
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="31"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="23"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -1627,11 +1630,11 @@
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="31"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="23"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -1697,19 +1700,19 @@
       <c r="AY14" s="7"/>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="31"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="23"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -1760,11 +1763,11 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="31"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="23"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
@@ -1853,11 +1856,11 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="24"/>
-      <c r="I17" s="31"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="23"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
@@ -1956,11 +1959,11 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="28" t="s">
+      <c r="G18" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="30"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="33"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
@@ -2023,11 +2026,11 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="28" t="s">
+      <c r="G19" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="29"/>
-      <c r="I19" s="30"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="33"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
@@ -2090,11 +2093,11 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="28" t="s">
+      <c r="G20" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="29"/>
-      <c r="I20" s="30"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="33"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
@@ -2169,11 +2172,11 @@
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="29"/>
-      <c r="I21" s="30"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="33"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
@@ -2242,22 +2245,22 @@
       <c r="AY21" s="7"/>
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="23" t="s">
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="31"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="23"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -2302,11 +2305,11 @@
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="31"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="23"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -2367,11 +2370,11 @@
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="31"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="23"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -2431,11 +2434,11 @@
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="31"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="23"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -2491,22 +2494,22 @@
       <c r="AY25" s="7"/>
     </row>
     <row r="26" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="23" t="s">
+      <c r="J26" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -2557,11 +2560,11 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="23" t="s">
+      <c r="J27" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -2628,11 +2631,11 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="23" t="s">
+      <c r="J28" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -2691,11 +2694,11 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
-      <c r="J29" s="23" t="s">
+      <c r="J29" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -2762,11 +2765,11 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="23" t="s">
+      <c r="J30" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -2808,18 +2811,18 @@
       <c r="AY30" s="7"/>
     </row>
     <row r="31" spans="1:51" ht="114" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -2872,6 +2875,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="C31:L31"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
     <mergeCell ref="J22:L22"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A3:C3"/>
@@ -2888,27 +2910,8 @@
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="C31:L31"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G21:I21"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="7.8740157480314963" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="142" scale="84" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>